--- a/capacity_ports_query/hfc/results.xlsx
+++ b/capacity_ports_query/hfc/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>Node</t>
   </si>
@@ -47,10 +47,16 @@
     <t>Previsão de congestionamento</t>
   </si>
   <si>
+    <t>Projeto</t>
+  </si>
+  <si>
     <t>Node_APA-01</t>
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Estável</t>
   </si>
   <si>
     <t>Node_APA-02</t>
@@ -243,7 +249,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -256,6 +262,21 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -284,12 +305,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="2" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="2" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,7 +624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,7 +633,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="18"/>
-    <col customWidth="1" max="2" min="2" width="4"/>
+    <col customWidth="1" max="2" min="2" width="6"/>
     <col customWidth="1" max="3" min="3" width="13"/>
     <col customWidth="1" max="4" min="4" width="17"/>
     <col customWidth="1" max="5" min="5" width="43"/>
@@ -609,9 +642,10 @@
     <col customWidth="1" max="8" min="8" width="25"/>
     <col customWidth="1" max="9" min="9" width="34"/>
     <col customWidth="1" max="10" min="10" width="28"/>
+    <col customWidth="1" max="11" min="11" width="7"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:10">
+    <row customHeight="1" ht="15" r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,16 +676,19 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>888</v>
@@ -659,31 +696,34 @@
       <c r="E2" s="2" t="n">
         <v>593.6613000000001</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>66.85375000000001</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
+      <c r="F2" s="3" t="n">
+        <v>0.6685375</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="3" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>888</v>
@@ -691,31 +731,34 @@
       <c r="E3" s="2" t="n">
         <v>611.3806000000001</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>68.84916666666668</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
+      <c r="F3" s="3" t="n">
+        <v>0.6884916666666667</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="4" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>888</v>
@@ -723,31 +766,34 @@
       <c r="E4" s="2" t="n">
         <v>536.8625999999999</v>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>60.45749999999999</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
+      <c r="F4" s="3" t="n">
+        <v>0.6045749999999999</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="5" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>888</v>
@@ -755,31 +801,34 @@
       <c r="E5" s="2" t="n">
         <v>591.3673</v>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>66.59541666666667</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>11</v>
+      <c r="F5" s="3" t="n">
+        <v>0.6659541666666666</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="6" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>888</v>
@@ -787,31 +836,34 @@
       <c r="E6" s="2" t="n">
         <v>653.4607000000001</v>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>73.58791666666667</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>11</v>
+      <c r="F6" s="3" t="n">
+        <v>0.7358791666666668</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="7" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>888</v>
@@ -819,31 +871,34 @@
       <c r="E7" s="2" t="n">
         <v>529.8436999999999</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>59.66708333333332</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>11</v>
+      <c r="F7" s="3" t="n">
+        <v>0.5966708333333333</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="8" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>592</v>
@@ -851,31 +906,34 @@
       <c r="E8" s="2" t="n">
         <v>466.4072</v>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>78.785</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>11</v>
+      <c r="F8" s="3" t="n">
+        <v>0.7878499999999999</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="9" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>592</v>
@@ -883,31 +941,34 @@
       <c r="E9" s="2" t="n">
         <v>481.3774000000001</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>81.31375000000001</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>11</v>
+      <c r="F9" s="5" t="n">
+        <v>0.8131375000000002</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="10" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>592</v>
@@ -915,31 +976,34 @@
       <c r="E10" s="2" t="n">
         <v>293.4692000000001</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <v>49.57250000000001</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>11</v>
+      <c r="F10" s="3" t="n">
+        <v>0.4957250000000001</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="11" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>592</v>
@@ -947,31 +1011,34 @@
       <c r="E11" s="2" t="n">
         <v>350.02</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>59.125</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>11</v>
+      <c r="F11" s="3" t="n">
+        <v>0.5912500000000001</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="12" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>592</v>
@@ -979,31 +1046,34 @@
       <c r="E12" s="2" t="n">
         <v>278.4694</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>47.03875</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>11</v>
+      <c r="F12" s="3" t="n">
+        <v>0.4703875</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="13" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>592</v>
@@ -1011,31 +1081,34 @@
       <c r="E13" s="2" t="n">
         <v>249.7056000000001</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <v>42.18000000000001</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>11</v>
+      <c r="F13" s="3" t="n">
+        <v>0.4218000000000001</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="14" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>592</v>
@@ -1043,31 +1116,34 @@
       <c r="E14" s="2" t="n">
         <v>323.7759</v>
       </c>
-      <c r="F14" s="2" t="n">
-        <v>54.691875</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>11</v>
+      <c r="F14" s="3" t="n">
+        <v>0.54691875</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="15" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>592</v>
@@ -1075,31 +1151,34 @@
       <c r="E15" s="2" t="n">
         <v>382.9278000000002</v>
       </c>
-      <c r="F15" s="2" t="n">
-        <v>64.68375000000002</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>11</v>
+      <c r="F15" s="3" t="n">
+        <v>0.6468375000000002</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="16" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>888</v>
@@ -1107,31 +1186,34 @@
       <c r="E16" s="2" t="n">
         <v>417.1824000000001</v>
       </c>
-      <c r="F16" s="2" t="n">
-        <v>46.98000000000001</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>11</v>
+      <c r="F16" s="3" t="n">
+        <v>0.4698000000000001</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="17" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="17" spans="1:11">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>592</v>
@@ -1139,31 +1221,34 @@
       <c r="E17" s="2" t="n">
         <v>445.8906999999999</v>
       </c>
-      <c r="F17" s="2" t="n">
-        <v>75.31937499999998</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>11</v>
+      <c r="F17" s="3" t="n">
+        <v>0.7531937499999998</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="18" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>592</v>
@@ -1171,31 +1256,34 @@
       <c r="E18" s="2" t="n">
         <v>393.8797999999999</v>
       </c>
-      <c r="F18" s="2" t="n">
-        <v>66.53375</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>11</v>
+      <c r="F18" s="3" t="n">
+        <v>0.6653375</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="19" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="19" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>592</v>
@@ -1203,31 +1291,34 @@
       <c r="E19" s="2" t="n">
         <v>390.7903</v>
       </c>
-      <c r="F19" s="2" t="n">
-        <v>66.011875</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>11</v>
+      <c r="F19" s="3" t="n">
+        <v>0.6601187500000001</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="20" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="20" spans="1:11">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>888</v>
@@ -1235,31 +1326,34 @@
       <c r="E20" s="2" t="n">
         <v>629.3070999999999</v>
       </c>
-      <c r="F20" s="2" t="n">
-        <v>70.86791666666666</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>11</v>
+      <c r="F20" s="3" t="n">
+        <v>0.7086791666666666</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="21" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="21" spans="1:11">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>592</v>
@@ -1267,31 +1361,34 @@
       <c r="E21" s="2" t="n">
         <v>336.3522</v>
       </c>
-      <c r="F21" s="2" t="n">
-        <v>56.81625</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>11</v>
+      <c r="F21" s="3" t="n">
+        <v>0.5681625</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="22" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="22" spans="1:11">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>592</v>
@@ -1299,31 +1396,34 @@
       <c r="E22" s="2" t="n">
         <v>402.0938</v>
       </c>
-      <c r="F22" s="2" t="n">
-        <v>67.92125</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>11</v>
+      <c r="F22" s="3" t="n">
+        <v>0.6792125</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="23" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="23" spans="1:11">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>592</v>
@@ -1331,31 +1431,34 @@
       <c r="E23" s="2" t="n">
         <v>409.2569999999999</v>
       </c>
-      <c r="F23" s="2" t="n">
-        <v>69.13124999999999</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>11</v>
+      <c r="F23" s="3" t="n">
+        <v>0.6913125</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="24" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="24" spans="1:11">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>592</v>
@@ -1363,31 +1466,34 @@
       <c r="E24" s="2" t="n">
         <v>363.7137</v>
       </c>
-      <c r="F24" s="2" t="n">
-        <v>61.43812499999999</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>11</v>
+      <c r="F24" s="3" t="n">
+        <v>0.6143812499999999</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="25" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="25" spans="1:11">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>592</v>
@@ -1395,31 +1501,34 @@
       <c r="E25" s="2" t="n">
         <v>481.6512</v>
       </c>
-      <c r="F25" s="2" t="n">
-        <v>81.36</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>11</v>
+      <c r="F25" s="5" t="n">
+        <v>0.8136</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="26" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="26" spans="1:11">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>592</v>
@@ -1427,31 +1536,34 @@
       <c r="E26" s="2" t="n">
         <v>397.4799</v>
       </c>
-      <c r="F26" s="2" t="n">
-        <v>67.14187500000001</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>11</v>
+      <c r="F26" s="3" t="n">
+        <v>0.6714187500000002</v>
+      </c>
+      <c r="G26" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="27" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="27" spans="1:11">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>888</v>
@@ -1459,31 +1571,34 @@
       <c r="E27" s="2" t="n">
         <v>558.4336</v>
       </c>
-      <c r="F27" s="2" t="n">
-        <v>62.88666666666666</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>11</v>
+      <c r="F27" s="3" t="n">
+        <v>0.6288666666666666</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="28" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="28" spans="1:11">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>888</v>
@@ -1491,31 +1606,34 @@
       <c r="E28" s="2" t="n">
         <v>623.8237000000001</v>
       </c>
-      <c r="F28" s="2" t="n">
-        <v>70.25041666666668</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>11</v>
+      <c r="F28" s="3" t="n">
+        <v>0.7025041666666668</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="29" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>888</v>
@@ -1523,31 +1641,34 @@
       <c r="E29" s="2" t="n">
         <v>386.0912999999999</v>
       </c>
-      <c r="F29" s="2" t="n">
-        <v>43.47874999999999</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>11</v>
+      <c r="F29" s="3" t="n">
+        <v>0.4347874999999999</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="30" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="30" spans="1:11">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>888</v>
@@ -1555,31 +1676,34 @@
       <c r="E30" s="2" t="n">
         <v>488.7589000000002</v>
       </c>
-      <c r="F30" s="2" t="n">
-        <v>55.04041666666668</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>11</v>
+      <c r="F30" s="3" t="n">
+        <v>0.5504041666666668</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="31" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="31" spans="1:11">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>592</v>
@@ -1587,31 +1711,34 @@
       <c r="E31" s="2" t="n">
         <v>234.8242</v>
       </c>
-      <c r="F31" s="2" t="n">
-        <v>39.66625</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>11</v>
+      <c r="F31" s="3" t="n">
+        <v>0.3966625</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="32" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="32" spans="1:11">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>592</v>
@@ -1619,31 +1746,34 @@
       <c r="E32" s="2" t="n">
         <v>198.135</v>
       </c>
-      <c r="F32" s="2" t="n">
-        <v>33.46875</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>11</v>
+      <c r="F32" s="3" t="n">
+        <v>0.3346875</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="33" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="33" spans="1:11">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>592</v>
@@ -1651,31 +1781,34 @@
       <c r="E33" s="2" t="n">
         <v>316.0133</v>
       </c>
-      <c r="F33" s="2" t="n">
-        <v>53.380625</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>11</v>
+      <c r="F33" s="3" t="n">
+        <v>0.53380625</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="34" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="34" spans="1:11">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>592</v>
@@ -1683,31 +1816,34 @@
       <c r="E34" s="2" t="n">
         <v>318.7254</v>
       </c>
-      <c r="F34" s="2" t="n">
-        <v>53.83875</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>11</v>
+      <c r="F34" s="3" t="n">
+        <v>0.5383875</v>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="35" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="35" spans="1:11">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>888</v>
@@ -1715,31 +1851,34 @@
       <c r="E35" s="2" t="n">
         <v>516.2277000000001</v>
       </c>
-      <c r="F35" s="2" t="n">
-        <v>58.13375000000001</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>11</v>
+      <c r="F35" s="3" t="n">
+        <v>0.5813375000000002</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="36" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="36" spans="1:11">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>888</v>
@@ -1747,31 +1886,34 @@
       <c r="E36" s="2" t="n">
         <v>473.4927</v>
       </c>
-      <c r="F36" s="2" t="n">
-        <v>53.32125</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>11</v>
+      <c r="F36" s="3" t="n">
+        <v>0.5332125</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="37" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="37" spans="1:11">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>592</v>
@@ -1779,31 +1921,34 @@
       <c r="E37" s="2" t="n">
         <v>447.6926</v>
       </c>
-      <c r="F37" s="2" t="n">
-        <v>75.62375</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>11</v>
+      <c r="F37" s="3" t="n">
+        <v>0.7562375</v>
+      </c>
+      <c r="G37" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="38" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="38" spans="1:11">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>888</v>
@@ -1811,31 +1956,34 @@
       <c r="E38" s="2" t="n">
         <v>602.4192</v>
       </c>
-      <c r="F38" s="2" t="n">
-        <v>67.84</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>11</v>
+      <c r="F38" s="3" t="n">
+        <v>0.6784</v>
+      </c>
+      <c r="G38" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="39" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="39" spans="1:11">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>888</v>
@@ -1843,31 +1991,34 @@
       <c r="E39" s="2" t="n">
         <v>688.0483</v>
       </c>
-      <c r="F39" s="2" t="n">
-        <v>77.48291666666667</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>11</v>
+      <c r="F39" s="3" t="n">
+        <v>0.7748291666666667</v>
+      </c>
+      <c r="G39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="40" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="40" spans="1:11">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>888</v>
@@ -1875,31 +2026,34 @@
       <c r="E40" s="2" t="n">
         <v>708.2059000000002</v>
       </c>
-      <c r="F40" s="2" t="n">
-        <v>79.75291666666668</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>11</v>
+      <c r="F40" s="3" t="n">
+        <v>0.7975291666666667</v>
+      </c>
+      <c r="G40" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="41" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="41" spans="1:11">
       <c r="A41" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>592</v>
@@ -1907,31 +2061,34 @@
       <c r="E41" s="2" t="n">
         <v>426.1475</v>
       </c>
-      <c r="F41" s="2" t="n">
-        <v>71.984375</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>11</v>
+      <c r="F41" s="3" t="n">
+        <v>0.71984375</v>
+      </c>
+      <c r="G41" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="42" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="42" spans="1:11">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>888</v>
@@ -1939,31 +2096,34 @@
       <c r="E42" s="2" t="n">
         <v>615.8872</v>
       </c>
-      <c r="F42" s="2" t="n">
-        <v>69.35666666666667</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>11</v>
+      <c r="F42" s="3" t="n">
+        <v>0.6935666666666667</v>
+      </c>
+      <c r="G42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="43" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="43" spans="1:11">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>888</v>
@@ -1971,31 +2131,34 @@
       <c r="E43" s="2" t="n">
         <v>643.4669999999999</v>
       </c>
-      <c r="F43" s="2" t="n">
-        <v>72.46249999999999</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>11</v>
+      <c r="F43" s="3" t="n">
+        <v>0.724625</v>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="44" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="44" spans="1:11">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>888</v>
@@ -2003,31 +2166,34 @@
       <c r="E44" s="2" t="n">
         <v>755.6102999999999</v>
       </c>
-      <c r="F44" s="2" t="n">
-        <v>85.09125</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>11</v>
+      <c r="F44" s="5" t="n">
+        <v>0.8509125000000001</v>
+      </c>
+      <c r="G44" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="45" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="45" spans="1:11">
       <c r="A45" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>888</v>
@@ -2035,31 +2201,34 @@
       <c r="E45" s="2" t="n">
         <v>747.3556000000001</v>
       </c>
-      <c r="F45" s="2" t="n">
-        <v>84.16166666666668</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>11</v>
+      <c r="F45" s="5" t="n">
+        <v>0.8416166666666668</v>
+      </c>
+      <c r="G45" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="46" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="46" spans="1:11">
       <c r="A46" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>888</v>
@@ -2067,31 +2236,34 @@
       <c r="E46" s="2" t="n">
         <v>797.4573000000003</v>
       </c>
-      <c r="F46" s="2" t="n">
-        <v>89.80375000000002</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>11</v>
+      <c r="F46" s="5" t="n">
+        <v>0.8980375000000003</v>
+      </c>
+      <c r="G46" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="47" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="47" spans="1:11">
       <c r="A47" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>888</v>
@@ -2099,31 +2271,34 @@
       <c r="E47" s="2" t="n">
         <v>711.4322999999998</v>
       </c>
-      <c r="F47" s="2" t="n">
-        <v>80.11624999999998</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>11</v>
+      <c r="F47" s="5" t="n">
+        <v>0.8011624999999998</v>
+      </c>
+      <c r="G47" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="48" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="48" spans="1:11">
       <c r="A48" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>888</v>
@@ -2131,31 +2306,34 @@
       <c r="E48" s="2" t="n">
         <v>665.6669999999999</v>
       </c>
-      <c r="F48" s="2" t="n">
-        <v>74.96249999999999</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>11</v>
+      <c r="F48" s="3" t="n">
+        <v>0.7496249999999999</v>
+      </c>
+      <c r="G48" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="49" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="49" spans="1:11">
       <c r="A49" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>888</v>
@@ -2163,31 +2341,34 @@
       <c r="E49" s="2" t="n">
         <v>755.6324999999998</v>
       </c>
-      <c r="F49" s="2" t="n">
-        <v>85.09374999999999</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>11</v>
+      <c r="F49" s="5" t="n">
+        <v>0.8509374999999999</v>
+      </c>
+      <c r="G49" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="50" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="50" spans="1:11">
       <c r="A50" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>888</v>
@@ -2195,31 +2376,34 @@
       <c r="E50" s="2" t="n">
         <v>808.5092</v>
       </c>
-      <c r="F50" s="2" t="n">
-        <v>91.04833333333333</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>11</v>
+      <c r="F50" s="6" t="n">
+        <v>0.9104833333333333</v>
+      </c>
+      <c r="G50" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="51" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="51" spans="1:11">
       <c r="A51" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>888</v>
@@ -2227,31 +2411,34 @@
       <c r="E51" s="2" t="n">
         <v>754.2931000000001</v>
       </c>
-      <c r="F51" s="2" t="n">
-        <v>84.94291666666668</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>11</v>
+      <c r="F51" s="5" t="n">
+        <v>0.8494291666666668</v>
+      </c>
+      <c r="G51" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="52" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="52" spans="1:11">
       <c r="A52" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>888</v>
@@ -2259,31 +2446,34 @@
       <c r="E52" s="2" t="n">
         <v>691.4412</v>
       </c>
-      <c r="F52" s="2" t="n">
-        <v>77.86499999999999</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>11</v>
+      <c r="F52" s="3" t="n">
+        <v>0.77865</v>
+      </c>
+      <c r="G52" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="53" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="53" spans="1:11">
       <c r="A53" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>592</v>
@@ -2291,31 +2481,34 @@
       <c r="E53" s="2" t="n">
         <v>483.8860000000001</v>
       </c>
-      <c r="F53" s="2" t="n">
-        <v>81.73750000000001</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>11</v>
+      <c r="F53" s="5" t="n">
+        <v>0.8173750000000001</v>
+      </c>
+      <c r="G53" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="54" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="54" spans="1:11">
       <c r="A54" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>592</v>
@@ -2323,31 +2516,34 @@
       <c r="E54" s="2" t="n">
         <v>322.7917</v>
       </c>
-      <c r="F54" s="2" t="n">
-        <v>54.525625</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>11</v>
+      <c r="F54" s="3" t="n">
+        <v>0.54525625</v>
+      </c>
+      <c r="G54" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="55" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="55" spans="1:11">
       <c r="A55" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>592</v>
@@ -2355,31 +2551,34 @@
       <c r="E55" s="2" t="n">
         <v>475.3501</v>
       </c>
-      <c r="F55" s="2" t="n">
-        <v>80.295625</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>11</v>
+      <c r="F55" s="5" t="n">
+        <v>0.80295625</v>
+      </c>
+      <c r="G55" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="56" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="56" spans="1:11">
       <c r="A56" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>888</v>
@@ -2387,31 +2586,34 @@
       <c r="E56" s="2" t="n">
         <v>365.7117</v>
       </c>
-      <c r="F56" s="2" t="n">
-        <v>41.18375</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>11</v>
+      <c r="F56" s="3" t="n">
+        <v>0.4118375</v>
+      </c>
+      <c r="G56" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="57" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="57" spans="1:11">
       <c r="A57" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>888</v>
@@ -2419,23 +2621,26 @@
       <c r="E57" s="2" t="n">
         <v>457.3348</v>
       </c>
-      <c r="F57" s="2" t="n">
-        <v>51.50166666666667</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>11</v>
+      <c r="F57" s="3" t="n">
+        <v>0.5150166666666667</v>
+      </c>
+      <c r="G57" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="58" spans="1:10"/>
+        <v>13</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="58" spans="1:11"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/capacity_ports_query/hfc/results.xlsx
+++ b/capacity_ports_query/hfc/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>Node</t>
   </si>
@@ -23,28 +23,35 @@
     <t>CMTS</t>
   </si>
   <si>
-    <t>Qtd. Clientes</t>
+    <t>Quantidade
+de clientes</t>
   </si>
   <si>
     <t>Capacidade (Mbps)</t>
   </si>
   <si>
-    <t>Utilização média entre as portadoras (Mbps)</t>
-  </si>
-  <si>
-    <t>Utilização média entre as portadoras (%)</t>
-  </si>
-  <si>
-    <t>Crescimento mensal (%)</t>
-  </si>
-  <si>
-    <t>Crescimento mensal (Mbps)</t>
-  </si>
-  <si>
-    <t>Previsão de congestionamento (Mês)</t>
-  </si>
-  <si>
-    <t>Previsão de congestionamento</t>
+    <t>Utilização média
+entre as portadoras (Mbps)</t>
+  </si>
+  <si>
+    <t>Utilização média
+entre as portadoras (%)</t>
+  </si>
+  <si>
+    <t>Crescimento
+mensal (%)</t>
+  </si>
+  <si>
+    <t>Crescimento
+mensal (Mbps)</t>
+  </si>
+  <si>
+    <t>Previsão de
+congestionamento (Mês)</t>
+  </si>
+  <si>
+    <t>Previsão de
+congestionamento</t>
   </si>
   <si>
     <t>Projeto</t>
@@ -56,12 +63,15 @@
     <t>?</t>
   </si>
   <si>
-    <t>Estável</t>
+    <t>Esgota em mais de 10 meses</t>
   </si>
   <si>
     <t>Node_APA-02</t>
   </si>
   <si>
+    <t>Decrescimento</t>
+  </si>
+  <si>
     <t>Node_APA-03</t>
   </si>
   <si>
@@ -77,6 +87,9 @@
     <t>Node_BVK/ROM-01</t>
   </si>
   <si>
+    <t>Esgota em até 5 meses</t>
+  </si>
+  <si>
     <t>Node_CEN-01/CEN-02</t>
   </si>
   <si>
@@ -138,6 +151,9 @@
   </si>
   <si>
     <t>Node_MAR-02A</t>
+  </si>
+  <si>
+    <t>Sem histórico</t>
   </si>
   <si>
     <t>Node_MAR-02B</t>
@@ -299,31 +315,31 @@
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="4" fontId="2" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="6" fontId="2" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -633,19 +649,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="18"/>
-    <col customWidth="1" max="2" min="2" width="6"/>
-    <col customWidth="1" max="3" min="3" width="13"/>
-    <col customWidth="1" max="4" min="4" width="17"/>
-    <col customWidth="1" max="5" min="5" width="43"/>
-    <col customWidth="1" max="6" min="6" width="40"/>
+    <col customWidth="1" max="2" min="2" width="7"/>
+    <col customWidth="1" max="3" min="3" width="16"/>
+    <col customWidth="1" max="4" min="4" width="13"/>
+    <col customWidth="1" max="5" min="5" width="26"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
     <col customWidth="1" max="7" min="7" width="22"/>
-    <col customWidth="1" max="8" min="8" width="25"/>
-    <col customWidth="1" max="9" min="9" width="34"/>
-    <col customWidth="1" max="10" min="10" width="28"/>
-    <col customWidth="1" max="11" min="11" width="7"/>
+    <col customWidth="1" max="8" min="8" width="17"/>
+    <col customWidth="1" max="9" min="9" width="22"/>
+    <col customWidth="1" max="10" min="10" width="26"/>
+    <col customWidth="1" max="11" min="11" width="8"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:11">
+    <row customHeight="1" ht="30" r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,7 +696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" spans="1:11">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -694,19 +710,19 @@
         <v>888</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>593.6613000000001</v>
+        <v>593.66</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0.6685375</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>0.000973214285714276</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>13</v>
@@ -729,22 +745,22 @@
         <v>888</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>611.3806000000001</v>
+        <v>611.38</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0.6884916666666667</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>-0.007081473214285669</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0</v>
+        <v>-6.29</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>12</v>
@@ -752,7 +768,7 @@
     </row>
     <row customHeight="1" ht="15" r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -764,22 +780,22 @@
         <v>888</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>536.8625999999999</v>
+        <v>536.86</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>0.6045749999999999</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>-0.01834151785714287</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0</v>
+        <v>-16.29</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>12</v>
@@ -787,7 +803,7 @@
     </row>
     <row customHeight="1" ht="15" r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -799,22 +815,22 @@
         <v>888</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>591.3673</v>
+        <v>591.37</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>0.6659541666666666</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>-0.003684151785714246</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0</v>
+        <v>-3.27</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>12</v>
@@ -822,7 +838,7 @@
     </row>
     <row customHeight="1" ht="15" r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -834,22 +850,22 @@
         <v>888</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>653.4607000000001</v>
+        <v>653.46</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>0.7358791666666668</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0</v>
+        <v>-0.007797991071428559</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0</v>
+        <v>-6.92</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>12</v>
@@ -857,7 +873,7 @@
     </row>
     <row customHeight="1" ht="15" r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
@@ -869,22 +885,22 @@
         <v>888</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>529.8436999999999</v>
+        <v>529.84</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>0.5966708333333333</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0</v>
+        <v>-0.04325111607142863</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0</v>
+        <v>-38.41</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>12</v>
@@ -892,7 +908,7 @@
     </row>
     <row customHeight="1" ht="15" r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -904,22 +920,22 @@
         <v>592</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>466.4072</v>
+        <v>466.41</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>0.7878499999999999</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0</v>
+        <v>0.05207477678571429</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>30.83</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>12</v>
@@ -927,7 +943,7 @@
     </row>
     <row customHeight="1" ht="15" r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
@@ -939,22 +955,22 @@
         <v>592</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>481.3774000000001</v>
+        <v>481.38</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>0.8131375000000002</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0</v>
+        <v>-0.01899776785714279</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0</v>
+        <v>-11.25</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>12</v>
@@ -962,7 +978,7 @@
     </row>
     <row customHeight="1" ht="15" r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
@@ -974,22 +990,22 @@
         <v>592</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>293.4692000000001</v>
+        <v>293.47</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>0.4957250000000001</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0</v>
+        <v>-0.004803013392857095</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0</v>
+        <v>-2.84</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0</v>
+        <v>-105</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>12</v>
@@ -997,7 +1013,7 @@
     </row>
     <row customHeight="1" ht="15" r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
@@ -1015,16 +1031,16 @@
         <v>0.5912500000000001</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>0</v>
+        <v>-0.003976004464285714</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0</v>
+        <v>-2.35</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0</v>
+        <v>-102</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>12</v>
@@ -1032,7 +1048,7 @@
     </row>
     <row customHeight="1" ht="15" r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -1044,19 +1060,19 @@
         <v>592</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>278.4694</v>
+        <v>278.47</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>0.4703875</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>0</v>
+        <v>0.006520647321428579</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>13</v>
@@ -1067,7 +1083,7 @@
     </row>
     <row customHeight="1" ht="15" r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -1079,22 +1095,22 @@
         <v>592</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>249.7056000000001</v>
+        <v>249.71</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>0.4218000000000001</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>0</v>
+        <v>-0.02394308035714281</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0</v>
+        <v>-14.17</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>12</v>
@@ -1102,7 +1118,7 @@
     </row>
     <row customHeight="1" ht="15" r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -1114,22 +1130,22 @@
         <v>592</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>323.7759</v>
+        <v>323.78</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>0.54691875</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>0</v>
+        <v>-0.004434709821428573</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0</v>
+        <v>-2.63</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0</v>
+        <v>-101</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>12</v>
@@ -1137,7 +1153,7 @@
     </row>
     <row customHeight="1" ht="15" r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
@@ -1149,22 +1165,22 @@
         <v>592</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>382.9278000000002</v>
+        <v>382.93</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>0.6468375000000002</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>0</v>
+        <v>-0.02146874999999996</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0</v>
+        <v>-12.71</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>12</v>
@@ -1172,7 +1188,7 @@
     </row>
     <row customHeight="1" ht="15" r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
@@ -1184,22 +1200,22 @@
         <v>888</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>417.1824000000001</v>
+        <v>417.18</v>
       </c>
       <c r="F16" s="3" t="n">
         <v>0.4698000000000001</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0</v>
+        <v>-0.01832142857142858</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0</v>
+        <v>-16.27</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>12</v>
@@ -1207,7 +1223,7 @@
     </row>
     <row customHeight="1" ht="15" r="17" spans="1:11">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
@@ -1219,22 +1235,22 @@
         <v>592</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>445.8906999999999</v>
+        <v>445.89</v>
       </c>
       <c r="F17" s="3" t="n">
         <v>0.7531937499999998</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>0</v>
+        <v>-0.04093191964285718</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0</v>
+        <v>-24.23</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>12</v>
@@ -1242,7 +1258,7 @@
     </row>
     <row customHeight="1" ht="15" r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
@@ -1254,22 +1270,22 @@
         <v>592</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>393.8797999999999</v>
+        <v>393.88</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>0.6653375</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>0</v>
+        <v>-0.03458537946428566</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0</v>
+        <v>-20.47</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>12</v>
@@ -1277,7 +1293,7 @@
     </row>
     <row customHeight="1" ht="15" r="19" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
@@ -1289,22 +1305,22 @@
         <v>592</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>390.7903</v>
+        <v>390.79</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>0.6601187500000001</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>0</v>
+        <v>-0.01967243303571424</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0</v>
+        <v>-11.65</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>12</v>
@@ -1312,7 +1328,7 @@
     </row>
     <row customHeight="1" ht="15" r="20" spans="1:11">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
@@ -1324,22 +1340,22 @@
         <v>888</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>629.3070999999999</v>
+        <v>629.3099999999999</v>
       </c>
       <c r="F20" s="3" t="n">
         <v>0.7086791666666666</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>0</v>
+        <v>-0.002729910714285744</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0</v>
+        <v>-2.42</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0</v>
+        <v>-106</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>12</v>
@@ -1347,7 +1363,7 @@
     </row>
     <row customHeight="1" ht="15" r="21" spans="1:11">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
@@ -1359,22 +1375,22 @@
         <v>592</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>336.3522</v>
+        <v>336.35</v>
       </c>
       <c r="F21" s="3" t="n">
         <v>0.5681625</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>0</v>
+        <v>-0.02556026785714285</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0</v>
+        <v>-15.13</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>12</v>
@@ -1382,7 +1398,7 @@
     </row>
     <row customHeight="1" ht="15" r="22" spans="1:11">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>12</v>
@@ -1394,22 +1410,22 @@
         <v>592</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>402.0938</v>
+        <v>402.09</v>
       </c>
       <c r="F22" s="3" t="n">
         <v>0.6792125</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>0</v>
+        <v>-0.002958147321428584</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0</v>
+        <v>-108</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>12</v>
@@ -1417,7 +1433,7 @@
     </row>
     <row customHeight="1" ht="15" r="23" spans="1:11">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>12</v>
@@ -1429,19 +1445,19 @@
         <v>592</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>409.2569999999999</v>
+        <v>409.26</v>
       </c>
       <c r="F23" s="3" t="n">
         <v>0.6913125</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>0</v>
+        <v>0.006898995535714254</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>13</v>
@@ -1452,7 +1468,7 @@
     </row>
     <row customHeight="1" ht="15" r="24" spans="1:11">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>12</v>
@@ -1464,22 +1480,22 @@
         <v>592</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>363.7137</v>
+        <v>363.71</v>
       </c>
       <c r="F24" s="3" t="n">
         <v>0.6143812499999999</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>0</v>
+        <v>-0.007618861607142875</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0</v>
+        <v>-4.51</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>12</v>
@@ -1487,7 +1503,7 @@
     </row>
     <row customHeight="1" ht="15" r="25" spans="1:11">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
@@ -1499,19 +1515,19 @@
         <v>592</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>481.6512</v>
+        <v>481.65</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0.8136</v>
       </c>
       <c r="G25" s="4" t="n">
-        <v>0</v>
+        <v>0.006224330357142868</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>13</v>
@@ -1522,7 +1538,7 @@
     </row>
     <row customHeight="1" ht="15" r="26" spans="1:11">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>12</v>
@@ -1534,22 +1550,22 @@
         <v>592</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>397.4799</v>
+        <v>397.48</v>
       </c>
       <c r="F26" s="3" t="n">
         <v>0.6714187500000002</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>0</v>
+        <v>-0.01509709821428565</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0</v>
+        <v>-8.94</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>12</v>
@@ -1557,7 +1573,7 @@
     </row>
     <row customHeight="1" ht="15" r="27" spans="1:11">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
@@ -1569,22 +1585,22 @@
         <v>888</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>558.4336</v>
+        <v>558.4299999999999</v>
       </c>
       <c r="F27" s="3" t="n">
         <v>0.6288666666666666</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>0</v>
+        <v>-0.02614174107142858</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0</v>
+        <v>-23.21</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>12</v>
@@ -1592,7 +1608,7 @@
     </row>
     <row customHeight="1" ht="15" r="28" spans="1:11">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>12</v>
@@ -1604,19 +1620,19 @@
         <v>888</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>623.8237000000001</v>
+        <v>623.8200000000001</v>
       </c>
       <c r="F28" s="3" t="n">
         <v>0.7025041666666668</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>0</v>
+        <v>0.0223482142857143</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0</v>
+        <v>19.85</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>13</v>
@@ -1627,7 +1643,7 @@
     </row>
     <row customHeight="1" ht="15" r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>12</v>
@@ -1639,22 +1655,22 @@
         <v>888</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>386.0912999999999</v>
+        <v>386.09</v>
       </c>
       <c r="F29" s="3" t="n">
         <v>0.4347874999999999</v>
       </c>
-      <c r="G29" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>0</v>
+      <c r="G29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>12</v>
@@ -1662,7 +1678,7 @@
     </row>
     <row customHeight="1" ht="15" r="30" spans="1:11">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>12</v>
@@ -1674,22 +1690,22 @@
         <v>888</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>488.7589000000002</v>
+        <v>488.76</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>0.5504041666666668</v>
       </c>
-      <c r="G30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0</v>
+      <c r="G30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>12</v>
@@ -1697,7 +1713,7 @@
     </row>
     <row customHeight="1" ht="15" r="31" spans="1:11">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>12</v>
@@ -1709,22 +1725,22 @@
         <v>592</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>234.8242</v>
+        <v>234.82</v>
       </c>
       <c r="F31" s="3" t="n">
         <v>0.3966625</v>
       </c>
       <c r="G31" s="4" t="n">
-        <v>0</v>
+        <v>-0.09601506696428569</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0</v>
+        <v>-56.84</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>12</v>
@@ -1732,7 +1748,7 @@
     </row>
     <row customHeight="1" ht="15" r="32" spans="1:11">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>12</v>
@@ -1744,22 +1760,22 @@
         <v>592</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>198.135</v>
+        <v>198.13</v>
       </c>
       <c r="F32" s="3" t="n">
         <v>0.3346875</v>
       </c>
       <c r="G32" s="4" t="n">
-        <v>0</v>
+        <v>-0.0643828125</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0</v>
+        <v>-38.11</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>12</v>
@@ -1767,7 +1783,7 @@
     </row>
     <row customHeight="1" ht="15" r="33" spans="1:11">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>12</v>
@@ -1779,22 +1795,22 @@
         <v>592</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>316.0133</v>
+        <v>316.01</v>
       </c>
       <c r="F33" s="3" t="n">
         <v>0.53380625</v>
       </c>
       <c r="G33" s="4" t="n">
-        <v>0</v>
+        <v>-0.006674665178571391</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0</v>
+        <v>-3.95</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0</v>
+        <v>-69</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>12</v>
@@ -1802,7 +1818,7 @@
     </row>
     <row customHeight="1" ht="15" r="34" spans="1:11">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
@@ -1814,22 +1830,22 @@
         <v>592</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>318.7254</v>
+        <v>318.73</v>
       </c>
       <c r="F34" s="3" t="n">
         <v>0.5383875</v>
       </c>
       <c r="G34" s="4" t="n">
-        <v>0</v>
+        <v>-0.04795647321428574</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0</v>
+        <v>-28.39</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>12</v>
@@ -1837,7 +1853,7 @@
     </row>
     <row customHeight="1" ht="15" r="35" spans="1:11">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>12</v>
@@ -1849,19 +1865,19 @@
         <v>888</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>516.2277000000001</v>
+        <v>516.23</v>
       </c>
       <c r="F35" s="3" t="n">
         <v>0.5813375000000002</v>
       </c>
       <c r="G35" s="4" t="n">
-        <v>0</v>
+        <v>0.008380580357142904</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0</v>
+        <v>7.44</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>13</v>
@@ -1872,7 +1888,7 @@
     </row>
     <row customHeight="1" ht="15" r="36" spans="1:11">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>12</v>
@@ -1884,22 +1900,22 @@
         <v>888</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>473.4927</v>
+        <v>473.49</v>
       </c>
       <c r="F36" s="3" t="n">
         <v>0.5332125</v>
       </c>
       <c r="G36" s="4" t="n">
-        <v>0</v>
+        <v>-0.00984263392857144</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0</v>
+        <v>-8.74</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>12</v>
@@ -1907,7 +1923,7 @@
     </row>
     <row customHeight="1" ht="15" r="37" spans="1:11">
       <c r="A37" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>12</v>
@@ -1919,22 +1935,22 @@
         <v>592</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>447.6926</v>
+        <v>447.69</v>
       </c>
       <c r="F37" s="3" t="n">
         <v>0.7562375</v>
       </c>
       <c r="G37" s="4" t="n">
-        <v>0</v>
+        <v>-0.01586674107142859</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0</v>
+        <v>-9.390000000000001</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>12</v>
@@ -1942,7 +1958,7 @@
     </row>
     <row customHeight="1" ht="15" r="38" spans="1:11">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>12</v>
@@ -1954,22 +1970,22 @@
         <v>888</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>602.4192</v>
+        <v>602.42</v>
       </c>
       <c r="F38" s="3" t="n">
         <v>0.6784</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>0</v>
+        <v>-0.009500000000000001</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0</v>
+        <v>-8.44</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>12</v>
@@ -1977,7 +1993,7 @@
     </row>
     <row customHeight="1" ht="15" r="39" spans="1:11">
       <c r="A39" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>12</v>
@@ -1989,19 +2005,19 @@
         <v>888</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>688.0483</v>
+        <v>688.05</v>
       </c>
       <c r="F39" s="3" t="n">
         <v>0.7748291666666667</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>0</v>
+        <v>0.003127232142857115</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>13</v>
@@ -2012,7 +2028,7 @@
     </row>
     <row customHeight="1" ht="15" r="40" spans="1:11">
       <c r="A40" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>12</v>
@@ -2024,22 +2040,22 @@
         <v>888</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>708.2059000000002</v>
+        <v>708.21</v>
       </c>
       <c r="F40" s="3" t="n">
         <v>0.7975291666666667</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>0</v>
+        <v>-0.02050223214285707</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0</v>
+        <v>-18.21</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>12</v>
@@ -2047,7 +2063,7 @@
     </row>
     <row customHeight="1" ht="15" r="41" spans="1:11">
       <c r="A41" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
@@ -2059,22 +2075,22 @@
         <v>592</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>426.1475</v>
+        <v>426.15</v>
       </c>
       <c r="F41" s="3" t="n">
         <v>0.71984375</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>0</v>
+        <v>-0.001463169642857145</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0</v>
+        <v>-0.87</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0</v>
+        <v>-190</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>12</v>
@@ -2082,7 +2098,7 @@
     </row>
     <row customHeight="1" ht="15" r="42" spans="1:11">
       <c r="A42" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>12</v>
@@ -2094,22 +2110,22 @@
         <v>888</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>615.8872</v>
+        <v>615.89</v>
       </c>
       <c r="F42" s="3" t="n">
         <v>0.6935666666666667</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>0</v>
+        <v>-0.006450892857142851</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0</v>
+        <v>-5.73</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>12</v>
@@ -2117,7 +2133,7 @@
     </row>
     <row customHeight="1" ht="15" r="43" spans="1:11">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>12</v>
@@ -2129,22 +2145,22 @@
         <v>888</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>643.4669999999999</v>
+        <v>643.47</v>
       </c>
       <c r="F43" s="3" t="n">
         <v>0.724625</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>0</v>
+        <v>-0.0268928571428572</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0</v>
+        <v>-23.88</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>12</v>
@@ -2152,7 +2168,7 @@
     </row>
     <row customHeight="1" ht="15" r="44" spans="1:11">
       <c r="A44" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>12</v>
@@ -2164,22 +2180,22 @@
         <v>888</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>755.6102999999999</v>
+        <v>755.61</v>
       </c>
       <c r="F44" s="5" t="n">
         <v>0.8509125000000001</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>0</v>
+        <v>-0.01059933035714285</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>0</v>
+        <v>-9.41</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>12</v>
@@ -2187,7 +2203,7 @@
     </row>
     <row customHeight="1" ht="15" r="45" spans="1:11">
       <c r="A45" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>12</v>
@@ -2199,22 +2215,22 @@
         <v>888</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>747.3556000000001</v>
+        <v>747.36</v>
       </c>
       <c r="F45" s="5" t="n">
         <v>0.8416166666666668</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>0</v>
+        <v>-0.01389174107142854</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>0</v>
+        <v>-12.34</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>12</v>
@@ -2222,7 +2238,7 @@
     </row>
     <row customHeight="1" ht="15" r="46" spans="1:11">
       <c r="A46" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>12</v>
@@ -2234,22 +2250,22 @@
         <v>888</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>797.4573000000003</v>
+        <v>797.46</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>0.8980375000000003</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>0</v>
+        <v>-0.01119866071428565</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>0</v>
+        <v>-9.94</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>12</v>
@@ -2257,7 +2273,7 @@
     </row>
     <row customHeight="1" ht="15" r="47" spans="1:11">
       <c r="A47" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>12</v>
@@ -2269,22 +2285,22 @@
         <v>888</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>711.4322999999998</v>
+        <v>711.4299999999999</v>
       </c>
       <c r="F47" s="5" t="n">
         <v>0.8011624999999998</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>0</v>
+        <v>-0.007159598214285788</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>0</v>
+        <v>-6.36</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>12</v>
@@ -2292,7 +2308,7 @@
     </row>
     <row customHeight="1" ht="15" r="48" spans="1:11">
       <c r="A48" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>12</v>
@@ -2304,22 +2320,22 @@
         <v>888</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>665.6669999999999</v>
+        <v>665.67</v>
       </c>
       <c r="F48" s="3" t="n">
         <v>0.7496249999999999</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>0</v>
+        <v>-0.02753013392857143</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>0</v>
+        <v>-24.45</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>12</v>
@@ -2327,7 +2343,7 @@
     </row>
     <row customHeight="1" ht="15" r="49" spans="1:11">
       <c r="A49" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>12</v>
@@ -2339,22 +2355,22 @@
         <v>888</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>755.6324999999998</v>
+        <v>755.63</v>
       </c>
       <c r="F49" s="5" t="n">
         <v>0.8509374999999999</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>0</v>
+        <v>-0.01211941964285716</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>0</v>
+        <v>-10.76</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>12</v>
@@ -2362,7 +2378,7 @@
     </row>
     <row customHeight="1" ht="15" r="50" spans="1:11">
       <c r="A50" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>12</v>
@@ -2374,22 +2390,22 @@
         <v>888</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>808.5092</v>
+        <v>808.51</v>
       </c>
       <c r="F50" s="6" t="n">
         <v>0.9104833333333333</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>0</v>
+        <v>-0.01028683035714286</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>0</v>
+        <v>-9.130000000000001</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>12</v>
@@ -2397,7 +2413,7 @@
     </row>
     <row customHeight="1" ht="15" r="51" spans="1:11">
       <c r="A51" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>12</v>
@@ -2409,22 +2425,22 @@
         <v>888</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>754.2931000000001</v>
+        <v>754.29</v>
       </c>
       <c r="F51" s="5" t="n">
         <v>0.8494291666666668</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>0</v>
+        <v>-0.02127120535714281</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>0</v>
+        <v>-18.89</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>12</v>
@@ -2432,7 +2448,7 @@
     </row>
     <row customHeight="1" ht="15" r="52" spans="1:11">
       <c r="A52" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>12</v>
@@ -2444,22 +2460,22 @@
         <v>888</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>691.4412</v>
+        <v>691.4400000000001</v>
       </c>
       <c r="F52" s="3" t="n">
         <v>0.77865</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>0</v>
+        <v>-0.01379017857142859</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>0</v>
+        <v>-12.25</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>12</v>
@@ -2467,7 +2483,7 @@
     </row>
     <row customHeight="1" ht="15" r="53" spans="1:11">
       <c r="A53" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>12</v>
@@ -2479,19 +2495,19 @@
         <v>592</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>483.8860000000001</v>
+        <v>483.89</v>
       </c>
       <c r="F53" s="5" t="n">
         <v>0.8173750000000001</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>0</v>
+        <v>0.01489118303571433</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>0</v>
+        <v>8.82</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>13</v>
@@ -2502,7 +2518,7 @@
     </row>
     <row customHeight="1" ht="15" r="54" spans="1:11">
       <c r="A54" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>12</v>
@@ -2514,22 +2530,22 @@
         <v>592</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>322.7917</v>
+        <v>322.79</v>
       </c>
       <c r="F54" s="3" t="n">
         <v>0.54525625</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>0</v>
+        <v>-0.008069196428571436</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>0</v>
+        <v>-4.78</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>0</v>
+        <v>-56</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>12</v>
@@ -2537,7 +2553,7 @@
     </row>
     <row customHeight="1" ht="15" r="55" spans="1:11">
       <c r="A55" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>12</v>
@@ -2549,19 +2565,19 @@
         <v>592</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>475.3501</v>
+        <v>475.35</v>
       </c>
       <c r="F55" s="5" t="n">
         <v>0.80295625</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>0</v>
+        <v>0.005435825892857147</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>13</v>
@@ -2572,7 +2588,7 @@
     </row>
     <row customHeight="1" ht="15" r="56" spans="1:11">
       <c r="A56" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>12</v>
@@ -2584,22 +2600,22 @@
         <v>888</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>365.7117</v>
+        <v>365.71</v>
       </c>
       <c r="F56" s="3" t="n">
         <v>0.4118375</v>
       </c>
       <c r="G56" s="4" t="n">
-        <v>0</v>
+        <v>-0.02012723214285715</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>0</v>
+        <v>-17.87</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>12</v>
@@ -2607,7 +2623,7 @@
     </row>
     <row customHeight="1" ht="15" r="57" spans="1:11">
       <c r="A57" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>12</v>
@@ -2619,22 +2635,22 @@
         <v>888</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>457.3348</v>
+        <v>457.33</v>
       </c>
       <c r="F57" s="3" t="n">
         <v>0.5150166666666667</v>
       </c>
       <c r="G57" s="4" t="n">
-        <v>0</v>
+        <v>-0.01138727678571426</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>0</v>
+        <v>-10.11</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>12</v>
